--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60293C-20D6-4F6C-BEFC-977EFFED9A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15617BA6-0E36-4F89-A3D0-BB5168D0ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="40">
   <si>
     <t>KW35</t>
   </si>
@@ -95,6 +95,72 @@
   </si>
   <si>
     <t>Stunden ges.</t>
+  </si>
+  <si>
+    <t>KW40</t>
+  </si>
+  <si>
+    <t>KW41</t>
+  </si>
+  <si>
+    <t>KW42</t>
+  </si>
+  <si>
+    <t>KW43</t>
+  </si>
+  <si>
+    <t>KW44</t>
+  </si>
+  <si>
+    <t>KW45</t>
+  </si>
+  <si>
+    <t>KW46</t>
+  </si>
+  <si>
+    <t>KW47</t>
+  </si>
+  <si>
+    <t>KW48</t>
+  </si>
+  <si>
+    <t>KW49</t>
+  </si>
+  <si>
+    <t>KW50</t>
+  </si>
+  <si>
+    <t>KW51</t>
+  </si>
+  <si>
+    <t>KW52</t>
+  </si>
+  <si>
+    <t>KW01</t>
+  </si>
+  <si>
+    <t>KW02</t>
+  </si>
+  <si>
+    <t>KW03</t>
+  </si>
+  <si>
+    <t>KW04</t>
+  </si>
+  <si>
+    <t>KW05</t>
+  </si>
+  <si>
+    <t>KW06</t>
+  </si>
+  <si>
+    <t>KW07</t>
+  </si>
+  <si>
+    <t>KW08</t>
+  </si>
+  <si>
+    <t>KW09</t>
   </si>
 </sst>
 </file>
@@ -466,20 +532,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -506,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +598,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -542,7 +608,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,7 +638,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -583,7 +649,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -614,7 +680,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -623,7 +689,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -646,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,7 +738,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -682,7 +748,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +774,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -719,7 +785,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +811,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -755,7 +821,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -765,7 +831,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -789,7 +855,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,7 +882,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -827,7 +893,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -854,7 +920,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -880,7 +946,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -890,7 +956,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +980,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,7 +1007,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -952,7 +1018,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -979,7 +1045,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1005,7 +1071,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1015,7 +1081,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1103,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1127,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1071,7 +1137,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1100,7 +1166,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1119,10 +1185,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1206,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1160,24 +1226,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B0B26-8017-4B3A-A9DA-E63703F9DFC3}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A13" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1192,9 +1258,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1206,7 +1272,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1216,7 +1282,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1243,7 +1309,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1268,7 +1334,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1277,7 +1343,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1300,9 +1366,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>45201</v>
@@ -1326,7 +1392,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1336,7 +1402,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1363,7 +1429,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1389,7 +1455,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1399,7 +1465,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1423,9 +1489,9 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>45208</v>
@@ -1450,7 +1516,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1461,7 +1527,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1492,7 +1558,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1522,7 +1588,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1532,7 +1598,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1556,9 +1622,9 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>45215</v>
@@ -1583,7 +1649,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1594,7 +1660,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1623,7 +1689,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1651,7 +1717,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1661,7 +1727,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1685,9 +1751,9 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3">
         <v>45222</v>
@@ -1712,7 +1778,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1723,7 +1789,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1752,7 +1818,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1770,13 +1836,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1785,9 +1851,9 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3">
         <v>45229</v>
@@ -1797,12 +1863,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,12 +1879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1829,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -1866,24 +1932,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6493E4-71F9-48BC-8439-200D2505B184}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1906,9 +1972,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1928,7 +1994,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1938,7 +2004,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1956,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1967,7 +2033,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1985,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1994,7 +2060,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2003,7 +2069,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2026,9 +2092,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>45236</v>
@@ -2052,7 +2118,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2062,7 +2128,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2089,7 +2155,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2115,7 +2181,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2125,7 +2191,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2149,9 +2215,9 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
         <v>45243</v>
@@ -2176,7 +2242,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2187,7 +2253,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2214,7 +2280,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2230,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2240,7 +2306,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2250,7 +2316,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2274,9 +2340,9 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>45250</v>
@@ -2301,7 +2367,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2312,7 +2378,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2341,7 +2407,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2359,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2369,7 +2435,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2379,7 +2445,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2397,9 +2463,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3">
         <v>45257</v>
@@ -2417,7 +2483,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2427,22 +2493,24 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2452,7 +2520,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2467,19 +2535,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2488,13 +2556,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2506,24 +2574,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2C203-DAED-48B0-A18A-74C20147B6C9}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A25" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2542,9 +2610,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2560,7 +2628,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2570,7 +2638,662 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7">
+        <f>SUM(B4:H4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45264</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45265</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45266</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45267</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45268</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45269</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7">
+        <f>SUM(B12:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45271</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45272</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45273</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45274</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45275</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45276</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45277</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45278</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45279</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45280</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45281</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45282</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45283</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45284</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45285</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45286</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45287</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45288</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45289</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45290</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45291</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="7">
+        <f>I4+I12+I20+I28+I36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <f>I6+I14+I22+I30+I38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7">
+        <f>I40+I41</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45293</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45294</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45295</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45296</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2597,14 +3320,12 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2612,10 +3333,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2624,7 +3345,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2633,7 +3354,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2656,33 +3377,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3">
-        <v>45264</v>
+        <v>45299</v>
       </c>
       <c r="C10" s="3">
-        <v>45265</v>
+        <v>45300</v>
       </c>
       <c r="D10" s="3">
-        <v>45266</v>
+        <v>45301</v>
       </c>
       <c r="E10" s="3">
-        <v>45267</v>
+        <v>45302</v>
       </c>
       <c r="F10" s="3">
-        <v>45268</v>
+        <v>45303</v>
       </c>
       <c r="G10" s="3">
-        <v>45269</v>
+        <v>45304</v>
       </c>
       <c r="H10" s="3">
-        <v>45270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2692,7 +3413,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2719,14 +3440,12 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2734,10 +3453,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2747,7 +3466,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2757,7 +3476,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2781,34 +3500,34 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>45271</v>
+        <v>45306</v>
       </c>
       <c r="C18" s="3">
-        <v>45272</v>
+        <v>45307</v>
       </c>
       <c r="D18" s="3">
-        <v>45273</v>
+        <v>45308</v>
       </c>
       <c r="E18" s="3">
-        <v>45274</v>
+        <v>45309</v>
       </c>
       <c r="F18" s="3">
-        <v>45275</v>
+        <v>45310</v>
       </c>
       <c r="G18" s="3">
-        <v>45276</v>
+        <v>45311</v>
       </c>
       <c r="H18" s="3">
-        <v>45277</v>
+        <v>45312</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2819,7 +3538,680 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45314</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45315</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45316</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45317</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45318</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45319</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45322</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="7">
+        <f>I4+I12+I20+I28+I36</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <f>I6+I14+I22+I30+I38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7">
+        <f>I40+I41</f>
+        <v>6.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669FB0A-182A-4B04-9782-A73C1B87A93A}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>45323</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45324</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45325</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f>SUM(B4:H4)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45328</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45329</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45330</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45331</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45332</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7">
+        <f>SUM(B12:H12)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45334</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45335</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45336</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45337</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45338</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45339</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45340</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2846,25 +4238,23 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2874,7 +4264,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2884,7 +4274,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2908,34 +4298,34 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>45278</v>
+        <v>45341</v>
       </c>
       <c r="C26" s="3">
-        <v>45279</v>
+        <v>45342</v>
       </c>
       <c r="D26" s="3">
-        <v>45280</v>
+        <v>45343</v>
       </c>
       <c r="E26" s="3">
-        <v>45281</v>
+        <v>45344</v>
       </c>
       <c r="F26" s="3">
-        <v>45282</v>
+        <v>45345</v>
       </c>
       <c r="G26" s="3">
-        <v>45283</v>
+        <v>45346</v>
       </c>
       <c r="H26" s="3">
-        <v>45284</v>
+        <v>45347</v>
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2946,7 +4336,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2962,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2973,7 +4363,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2999,7 +4389,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3009,7 +4399,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3028,721 +4418,30 @@
       <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45285</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45286</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45287</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45288</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45289</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45290</v>
-      </c>
-      <c r="H34" s="3">
-        <v>45291</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="7">
-        <f>I4+I12+I20+I28+I36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="7">
-        <f>I6+I14+I22+I30+I38</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="7">
-        <f>I40+I41</f>
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45166</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45167</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45168</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45169</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45170</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45171</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f>SUM(B4:H4)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45173</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45174</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45175</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45176</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45177</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45178</v>
-      </c>
-      <c r="H10" s="3">
-        <v>45179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7">
-        <f>SUM(B12:H12)</f>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7">
-        <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45180</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45181</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45182</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45183</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45184</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45185</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45186</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45188</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45189</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45190</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45191</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45192</v>
-      </c>
-      <c r="H26" s="3">
-        <v>45193</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3">
-        <v>45194</v>
+        <v>45348</v>
       </c>
       <c r="C34" s="3">
-        <v>45195</v>
+        <v>45349</v>
       </c>
       <c r="D34" s="3">
-        <v>45196</v>
+        <v>45350</v>
       </c>
       <c r="E34" s="3">
-        <v>45197</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45198</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45199</v>
-      </c>
+        <v>45351</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3752,7 +4451,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3767,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3777,7 +4476,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3792,10 +4491,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3804,7 +4503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3813,684 +4512,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="7">
-        <f>I40+I41</f>
-        <v>98.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669FB0A-182A-4B04-9782-A73C1B87A93A}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45166</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45167</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45168</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45169</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45170</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45171</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f>SUM(B4:H4)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45173</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45174</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45175</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45176</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45177</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45178</v>
-      </c>
-      <c r="H10" s="3">
-        <v>45179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7">
-        <f>SUM(B12:H12)</f>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7">
-        <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45180</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45181</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45182</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45183</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45184</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45185</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45186</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45188</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45189</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45190</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45191</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45192</v>
-      </c>
-      <c r="H26" s="3">
-        <v>45193</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45194</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45195</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45196</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45197</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45198</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45199</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="I36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="I38" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="7">
-        <f>I4+I12+I20+I28+I36</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="7">
-        <f>I6+I14+I22+I30+I38</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>

--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15617BA6-0E36-4F89-A3D0-BB5168D0ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93045B89-1EC9-4433-9A23-FDACA990B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="40">
   <si>
     <t>KW35</t>
   </si>
@@ -536,16 +536,16 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -608,7 +608,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -649,7 +649,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -680,7 +680,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -689,7 +689,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -748,7 +748,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,7 +774,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -785,7 +785,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -821,7 +821,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -831,7 +831,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -893,7 +893,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -920,7 +920,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -946,7 +946,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -956,7 +956,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1018,7 +1018,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1045,7 +1045,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1071,7 +1071,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1081,7 +1081,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1137,7 +1137,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1166,7 +1166,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1185,10 +1185,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1230,20 +1230,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1282,7 +1282,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1309,7 +1309,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1334,7 +1334,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1402,7 +1402,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1429,7 +1429,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1455,7 +1455,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1465,7 +1465,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1527,7 +1527,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1558,7 +1558,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1588,7 +1588,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1598,7 +1598,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1660,7 +1660,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1689,7 +1689,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1717,7 +1717,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1727,7 +1727,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1789,7 +1789,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1818,7 +1818,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1836,13 +1836,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1879,12 +1879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -1936,20 +1936,20 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1972,7 +1972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2004,7 +2004,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2033,7 +2033,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2060,7 +2060,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2069,7 +2069,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2128,7 +2128,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2155,7 +2155,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2181,7 +2181,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2191,7 +2191,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2253,7 +2253,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2280,7 +2280,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2306,7 +2306,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2316,7 +2316,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2378,7 +2378,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2407,7 +2407,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2435,7 +2435,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2445,7 +2445,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2493,7 +2493,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2520,7 +2520,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2578,20 +2578,20 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2610,7 +2610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2638,7 +2638,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2667,7 +2667,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2694,7 +2694,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2703,7 +2703,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2762,7 +2762,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2789,7 +2789,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2817,7 +2817,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2827,7 +2827,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2889,7 +2889,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2916,7 +2916,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2944,7 +2944,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2954,7 +2954,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3016,7 +3016,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3043,7 +3043,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3069,7 +3069,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3079,7 +3079,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3141,7 +3141,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3168,7 +3168,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3224,13 +3224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3257,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3293,7 +3293,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3320,7 +3320,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3345,7 +3345,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3354,7 +3354,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3413,7 +3413,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3440,7 +3440,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3466,7 +3466,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3476,7 +3476,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3538,7 +3538,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3569,7 +3569,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3595,7 +3595,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3605,7 +3605,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3667,7 +3667,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3698,7 +3698,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3724,7 +3724,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3734,7 +3734,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3784,7 +3784,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3809,7 +3809,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3863,23 +3863,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669FB0A-182A-4B04-9782-A73C1B87A93A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3916,7 +3910,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3926,37 +3920,23 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="7">
         <f>SUM(B4:H4)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3967,29 +3947,23 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3998,7 +3972,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4007,7 +3981,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4056,7 +4030,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4066,33 +4040,23 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="7">
         <f>SUM(B12:H12)</f>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4103,33 +4067,23 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4139,7 +4093,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4149,7 +4103,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4173,7 +4127,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4200,7 +4154,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4211,7 +4165,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4227,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4238,7 +4192,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4264,7 +4218,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4274,7 +4228,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4298,7 +4252,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4325,7 +4279,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4336,7 +4290,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4352,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4363,7 +4317,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4389,7 +4343,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4399,7 +4353,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4421,7 +4375,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4441,7 +4395,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4451,7 +4405,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4466,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4476,7 +4430,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4491,34 +4445,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>98.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93045B89-1EC9-4433-9A23-FDACA990B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8154461-9072-4C65-8383-7B0F8FE63425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="September" sheetId="1" r:id="rId1"/>
-    <sheet name="Oktober" sheetId="2" r:id="rId2"/>
-    <sheet name="November" sheetId="3" r:id="rId3"/>
-    <sheet name="Dezember" sheetId="4" r:id="rId4"/>
-    <sheet name="Jänner" sheetId="5" r:id="rId5"/>
-    <sheet name="Februar" sheetId="6" r:id="rId6"/>
+    <sheet name="SUMME" sheetId="7" r:id="rId1"/>
+    <sheet name="September" sheetId="1" r:id="rId2"/>
+    <sheet name="Oktober" sheetId="2" r:id="rId3"/>
+    <sheet name="November" sheetId="3" r:id="rId4"/>
+    <sheet name="Dezember" sheetId="4" r:id="rId5"/>
+    <sheet name="Jänner" sheetId="5" r:id="rId6"/>
+    <sheet name="Februar" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="41">
   <si>
     <t>KW35</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t>KW09</t>
+  </si>
+  <si>
+    <t>Gesamte Zeit</t>
   </si>
 </sst>
 </file>
@@ -529,23 +533,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40</f>
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41</f>
+        <v>45.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -572,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +640,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -608,7 +650,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,7 +680,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -649,7 +691,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -671,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -680,7 +722,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -689,7 +731,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +780,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -748,7 +790,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,7 +816,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -785,7 +827,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,7 +853,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -821,7 +863,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -831,7 +873,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -855,7 +897,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,7 +924,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -893,7 +935,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -920,7 +962,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -936,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -946,7 +988,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -956,7 +998,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1022,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1049,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1018,7 +1060,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1045,7 +1087,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1071,7 +1113,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1081,7 +1123,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1145,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1169,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1137,7 +1179,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1166,7 +1208,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1185,10 +1227,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1248,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1222,28 +1264,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B0B26-8017-4B3A-A9DA-E63703F9DFC3}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="76" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="76" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1258,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1314,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1282,7 +1324,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1309,7 +1351,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1334,7 +1376,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1343,7 +1385,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1434,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1402,7 +1444,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1429,7 +1471,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1455,7 +1497,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1465,7 +1507,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1531,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1558,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1527,7 +1569,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1558,7 +1600,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1588,7 +1630,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1598,7 +1640,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1664,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1691,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1660,7 +1702,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1689,7 +1731,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1717,7 +1759,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1727,7 +1769,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1793,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1820,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1789,7 +1831,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1818,7 +1860,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1836,13 +1878,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1893,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1863,12 +1905,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1879,12 +1921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1904,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1913,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -1928,28 +1970,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6493E4-71F9-48BC-8439-200D2505B184}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1972,7 +2014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +2036,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2004,7 +2046,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2033,7 +2075,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2060,7 +2102,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2069,7 +2111,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2160,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2128,7 +2170,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2155,7 +2197,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2181,7 +2223,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2191,7 +2233,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2257,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2284,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2253,7 +2295,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2280,7 +2322,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2306,7 +2348,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2316,7 +2358,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2382,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2409,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2378,7 +2420,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2407,7 +2449,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2425,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2435,7 +2477,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2445,7 +2487,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2505,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2483,7 +2525,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2493,7 +2535,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2520,7 +2562,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2535,10 +2577,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2547,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2570,28 +2612,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2C203-DAED-48B0-A18A-74C20147B6C9}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A28" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2610,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2670,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2638,7 +2680,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2667,7 +2709,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2685,7 +2727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2694,7 +2736,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2703,7 +2745,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2752,7 +2794,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2762,7 +2804,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2789,7 +2831,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2817,7 +2859,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2827,7 +2869,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2893,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2878,7 +2920,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2889,7 +2931,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2916,7 +2958,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2934,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2944,7 +2986,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2954,7 +2996,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2978,7 +3020,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3005,7 +3047,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3016,7 +3058,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3043,7 +3085,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3069,7 +3111,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3079,7 +3121,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3145,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3130,7 +3172,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3141,7 +3183,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3168,7 +3210,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3184,10 +3226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3196,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3220,17 +3262,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3257,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3325,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3293,7 +3335,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3309,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3320,7 +3362,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3336,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3345,7 +3387,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3354,7 +3396,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3445,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3413,7 +3455,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3440,7 +3482,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3456,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3466,7 +3508,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3476,7 +3518,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3542,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3527,7 +3569,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3538,7 +3580,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3558,7 +3600,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3569,7 +3611,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3585,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3595,7 +3637,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3605,7 +3647,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3629,7 +3671,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3656,7 +3698,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3667,7 +3709,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3698,7 +3740,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3724,7 +3766,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3734,7 +3776,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3756,7 +3798,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3774,7 +3816,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3784,7 +3826,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3799,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3809,7 +3851,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3824,10 +3866,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +3878,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3845,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3859,17 +3901,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669FB0A-182A-4B04-9782-A73C1B87A93A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3890,7 +3935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3910,7 +3955,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3920,7 +3965,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3936,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3947,7 +3992,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3963,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3972,7 +4017,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3981,7 +4026,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4004,7 +4049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4030,7 +4075,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4040,7 +4085,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4067,7 +4112,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4083,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4093,7 +4138,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4103,7 +4148,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4127,7 +4172,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4154,7 +4199,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4165,12 +4210,14 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4178,10 +4225,10 @@
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4192,7 +4239,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4208,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4218,7 +4265,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4228,7 +4275,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4252,7 +4299,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4279,7 +4326,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4290,7 +4337,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4306,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4317,7 +4364,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4343,7 +4390,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4353,7 +4400,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4375,7 +4422,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4395,7 +4442,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4405,7 +4452,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4420,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4430,7 +4477,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4445,19 +4492,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4466,16 +4513,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8154461-9072-4C65-8383-7B0F8FE63425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECE4988-DF75-4778-B28E-E8458F45D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -537,17 +537,17 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -556,13 +556,13 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41</f>
-        <v>45.5</v>
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>
@@ -574,20 +574,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -650,7 +650,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -691,18 +691,22 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
       <c r="F6" s="4">
         <v>3</v>
       </c>
@@ -710,10 +714,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -722,7 +726,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -731,7 +735,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -754,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,7 +784,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -790,7 +794,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -816,7 +820,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -827,7 +831,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,7 +857,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -863,7 +867,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -873,7 +877,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -897,7 +901,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -924,7 +928,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -935,7 +939,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -951,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -962,7 +966,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -988,7 +992,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -998,7 +1002,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1053,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1060,7 +1064,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1087,7 +1091,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1113,7 +1117,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1123,7 +1127,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1149,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1173,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1179,7 +1183,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1208,7 +1212,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1227,10 +1231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1239,22 +1243,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>110.5</v>
+        <v>116.5</v>
       </c>
     </row>
   </sheetData>
@@ -1268,24 +1272,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B0B26-8017-4B3A-A9DA-E63703F9DFC3}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="76" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="76" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1300,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1324,7 +1328,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1351,7 +1355,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1376,7 +1380,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1385,7 +1389,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1444,7 +1448,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1471,7 +1475,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1497,7 +1501,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1507,7 +1511,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1535,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1569,7 +1573,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1600,7 +1604,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1630,7 +1634,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1640,7 +1644,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1668,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1691,7 +1695,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1702,7 +1706,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1731,7 +1735,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1759,7 +1763,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1769,7 +1773,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1824,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1831,7 +1835,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1860,7 +1864,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1878,13 +1882,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1897,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1905,12 +1909,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1921,12 +1925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -1978,20 +1982,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2014,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2046,7 +2050,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2075,7 +2079,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2102,7 +2106,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2111,7 +2115,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2170,7 +2174,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2197,7 +2201,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2223,7 +2227,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2233,7 +2237,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2261,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2284,7 +2288,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2295,7 +2299,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2322,7 +2326,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2348,7 +2352,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2358,7 +2362,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2386,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2413,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2420,7 +2424,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2449,7 +2453,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2477,7 +2481,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2487,7 +2491,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2509,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,7 +2529,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2535,7 +2539,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2562,7 +2566,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2577,10 +2581,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2616,24 +2620,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2C203-DAED-48B0-A18A-74C20147B6C9}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2652,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2680,7 +2684,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2709,7 +2713,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2736,7 +2740,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2745,7 +2749,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2804,7 +2808,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2831,7 +2835,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2859,7 +2863,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2869,7 +2873,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2897,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2920,7 +2924,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2931,7 +2935,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2958,7 +2962,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2986,7 +2990,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2996,7 +3000,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3047,7 +3051,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3058,7 +3062,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3085,7 +3089,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3111,7 +3115,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3121,7 +3125,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3149,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3172,7 +3176,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3183,7 +3187,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3210,7 +3214,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3226,10 +3230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3266,13 +3270,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3299,7 +3303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3335,7 +3339,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3362,7 +3366,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3387,7 +3391,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3396,7 +3400,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3455,7 +3459,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3482,7 +3486,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3508,7 +3512,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3518,7 +3522,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3542,7 +3546,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3569,7 +3573,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3580,7 +3584,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3611,7 +3615,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3637,7 +3641,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3647,7 +3651,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3671,7 +3675,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3698,7 +3702,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3709,7 +3713,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3740,7 +3744,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3766,7 +3770,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3776,7 +3780,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3826,7 +3830,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3851,7 +3855,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3866,10 +3870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3908,13 +3912,13 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3935,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3965,7 +3969,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3992,7 +3996,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4017,7 +4021,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4026,7 +4030,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4085,7 +4089,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4112,7 +4116,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4138,7 +4142,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4148,7 +4152,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4176,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4199,7 +4203,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4210,7 +4214,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4239,23 +4243,27 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="4">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4265,7 +4273,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4275,7 +4283,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4307,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4326,7 +4334,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4337,7 +4345,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4353,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4364,7 +4372,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4390,7 +4398,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4400,7 +4408,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4422,7 +4430,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4442,7 +4450,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4452,7 +4460,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4477,7 +4485,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4492,10 +4500,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -4504,22 +4512,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECE4988-DF75-4778-B28E-E8458F45D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8741B3-0FDC-46A2-9F67-142D16CF9D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>
@@ -3912,8 +3912,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4260,7 +4260,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8741B3-0FDC-46A2-9F67-142D16CF9D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417B79D-DE52-47AA-BB25-600CBB0C8EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -537,26 +537,26 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40</f>
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -578,16 +578,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -650,7 +650,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -691,7 +691,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -726,7 +726,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -735,7 +735,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -794,7 +794,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -831,7 +831,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -867,7 +867,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -877,7 +877,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -939,7 +939,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -966,7 +966,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -992,7 +992,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1002,7 +1002,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1064,7 +1064,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1091,7 +1091,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1117,7 +1117,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1127,7 +1127,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1183,7 +1183,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1212,7 +1212,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1231,10 +1231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1276,20 +1276,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1304,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1328,7 +1328,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1355,7 +1355,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1380,7 +1380,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1389,7 +1389,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1448,7 +1448,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1475,7 +1475,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1501,7 +1501,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1511,7 +1511,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1573,7 +1573,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1604,7 +1604,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1634,7 +1634,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1644,7 +1644,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1706,7 +1706,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1735,7 +1735,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1773,7 +1773,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1835,7 +1835,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1864,7 +1864,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1925,12 +1925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -1982,20 +1982,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2018,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2050,7 +2050,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2079,7 +2079,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2106,7 +2106,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2115,7 +2115,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2174,7 +2174,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2201,7 +2201,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2227,7 +2227,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2237,7 +2237,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2299,7 +2299,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2326,7 +2326,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2352,7 +2352,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2362,7 +2362,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2424,7 +2424,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2453,7 +2453,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2481,7 +2481,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2491,7 +2491,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2539,7 +2539,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2566,7 +2566,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2624,20 +2624,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2684,7 +2684,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2713,7 +2713,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2740,7 +2740,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2749,7 +2749,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2808,7 +2808,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2835,7 +2835,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2863,7 +2863,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2873,7 +2873,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2935,7 +2935,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2962,7 +2962,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2990,7 +2990,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3000,7 +3000,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3062,7 +3062,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3089,7 +3089,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3115,7 +3115,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3125,7 +3125,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3187,7 +3187,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3214,7 +3214,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3230,10 +3230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3270,13 +3270,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3339,7 +3339,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3366,7 +3366,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3391,7 +3391,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3400,7 +3400,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3459,7 +3459,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3486,7 +3486,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3512,7 +3512,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3522,7 +3522,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3584,7 +3584,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3615,7 +3615,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3641,7 +3641,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3651,7 +3651,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3713,7 +3713,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3744,7 +3744,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3770,7 +3770,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3780,7 +3780,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3830,7 +3830,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3855,7 +3855,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3912,13 +3912,13 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3939,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3969,7 +3969,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3996,7 +3996,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4021,7 +4021,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4030,7 +4030,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4089,7 +4089,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4116,7 +4116,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4142,7 +4142,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4152,7 +4152,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4214,7 +4214,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4243,7 +4243,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4273,7 +4273,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4283,7 +4283,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4345,23 +4345,27 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4372,7 +4376,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4398,7 +4402,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4408,7 +4412,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4430,7 +4434,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4450,7 +4454,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4460,22 +4464,28 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4485,7 +4495,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4500,19 +4510,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4521,13 +4531,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
